--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -1,33 +1,58 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27DF86-924D-400A-B877-B292AB6F15D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="18240" yWindow="4905" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="#文本配置" r:id="rId3" sheetId="1"/>
+    <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author/>
     <author>PBJSON</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="1">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t>key
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>key
 string</t>
+        </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="1">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <t>value
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="8"/>
+            <rFont val="等线"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>value
 string</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -35,37 +60,93 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
   <si>
     <t>文本编号</t>
   </si>
   <si>
     <t>文本内容</t>
+  </si>
+  <si>
+    <t>制止兵变</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王已与组织达成契约：只要能够制止亲王兵变，便将猫咪视为国宝，提升我们在人类社会中的地位。我们也可以趁此机会拓宽势力，为接管这个国家做好准备。\n监视亲王 安彼西奥，尝试破坏发起兵变的各项准备。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>取得猫咪圣杯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪圣杯是古埃及盗取的神器之一。最近，在因西亚王城有着圣杯出没的传闻。我们需要在当地发展我们的组织，寻找蛛丝马迹。\n积累猫咪影响力后，执行“猫咪巡游”、“猫咪仪式”与“猫咪集会”，取得线索并找到圣杯所在。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知阴谋</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阴谋酝酿中…...</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统治人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自古埃及衰落以来，人类对猫咪的迫害已延续了千年，近些年来更是进一步加剧。为了猫咪族群的生存与延续，是时候重新取得对人类的统治了。\n如果能将猫咪渗透进人类的政治组织中，逐步提升猫咪影响，并取得必要的猫咪圣器，那么便可以结束人类对我们的压迫。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="darkGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79967650379955446"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,34 +154,365 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.0" customWidth="true"/>
-    <col min="2" max="2" style="1" width="9.0" customWidth="true"/>
+    <col min="1" max="1" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="88" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -108,9 +520,105 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>71000</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>71001</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>71010</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>71011</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>71020</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>71021</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>71030</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>71031</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>71040</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>71041</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>71050</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>71051</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD27DF86-924D-400A-B877-B292AB6F15D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8A495-3806-4096-A0D0-351C8ED0EBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18240" yWindow="4905" windowWidth="22440" windowHeight="14685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16830" yWindow="5520" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
   <si>
     <t>文本编号</t>
   </si>
@@ -93,10 +93,6 @@
   </si>
   <si>
     <t>统治人类</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>自古埃及衰落以来，人类对猫咪的迫害已延续了千年，近些年来更是进一步加剧。为了猫咪族群的生存与延续，是时候重新取得对人类的统治了。\n如果能将猫咪渗透进人类的政治组织中，逐步提升猫咪影响，并取得必要的猫咪圣器，那么便可以结束人类对我们的压迫。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -175,16 +171,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -500,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,7 +531,7 @@
       <c r="A3" s="2">
         <v>71001</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -548,7 +547,7 @@
       <c r="A5" s="2">
         <v>71011</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -605,7 +604,7 @@
         <v>71050</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -613,7 +612,79 @@
         <v>71051</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>71060</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>71061</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>71070</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>71071</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>71080</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>71081</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>71090</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>71091</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>71090</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,14 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A8A495-3806-4096-A0D0-351C8ED0EBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26B10E-9F85-4D4A-AF6F-5CEDAF5F7FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="5520" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19035" yWindow="5100" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -60,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
   <si>
     <t>文本编号</t>
   </si>
@@ -72,18 +82,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国王已与组织达成契约：只要能够制止亲王兵变，便将猫咪视为国宝，提升我们在人类社会中的地位。我们也可以趁此机会拓宽势力，为接管这个国家做好准备。\n监视亲王 安彼西奥，尝试破坏发起兵变的各项准备。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>取得猫咪圣杯</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪圣杯是古埃及盗取的神器之一。最近，在因西亚王城有着圣杯出没的传闻。我们需要在当地发展我们的组织，寻找蛛丝马迹。\n积累猫咪影响力后，执行“猫咪巡游”、“猫咪仪式”与“猫咪集会”，取得线索并找到圣杯所在。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>未知阴谋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -93,6 +95,21 @@
   </si>
   <si>
     <t>统治人类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>自古埃及衰落以来，人类对猫咪的迫害已延续了千年，近些年来更是进一步加剧。为了猫咪族群的生存与延续，是时候重新取得对人类的统治了。
+如果能将猫咪渗透进人类的政治组织中，逐步提升猫咪影响，并取得必要的猫咪圣器，那么便可以结束人类对我们的压迫。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王已与组织达成契约：只要能够制止亲王兵变，便将猫咪视为国宝，提升我们在人类社会中的地位。我们也可以趁此机会拓宽势力，为接管这个国家做好准备。
+监视亲王安彼西奥，尝试破坏发起兵变的各项准备。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪圣杯是古埃及盗取的神器之一。最近，在因西亚王城有着圣杯出没的传闻。我们需要在当地发展我们的组织，寻找蛛丝马迹。
+积累猫咪影响力后，执行“猫咪巡游”、“猫咪仪式”与“猫咪集会”，取得线索并找到圣杯所在。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -499,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -532,7 +549,7 @@
         <v>71001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -540,7 +557,7 @@
         <v>71010</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -548,7 +565,7 @@
         <v>71011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -556,7 +573,7 @@
         <v>71020</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -564,7 +581,7 @@
         <v>71021</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -572,7 +589,7 @@
         <v>71030</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -580,7 +597,7 @@
         <v>71031</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -588,7 +605,7 @@
         <v>71040</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -596,7 +613,7 @@
         <v>71041</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -604,7 +621,7 @@
         <v>71050</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -612,7 +629,7 @@
         <v>71051</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -620,7 +637,7 @@
         <v>71060</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -628,7 +645,7 @@
         <v>71061</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -636,7 +653,7 @@
         <v>71070</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -644,7 +661,7 @@
         <v>71071</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -652,7 +669,7 @@
         <v>71080</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -660,7 +677,7 @@
         <v>71081</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -671,20 +688,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>71091</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="2">
-        <v>71090</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B26B10E-9F85-4D4A-AF6F-5CEDAF5F7FB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A89929-DCB0-4AB8-B4B3-6C2555A69D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19035" yWindow="5100" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="315" yWindow="5580" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -519,7 +519,7 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A89929-DCB0-4AB8-B4B3-6C2555A69D37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF83CE6-BD79-4CE8-9656-A199F5D7A5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="5580" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14925" yWindow="4650" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
   <si>
     <t>文本编号</t>
   </si>
@@ -110,6 +110,10 @@
   <si>
     <t>猫咪圣杯是古埃及盗取的神器之一。最近，在因西亚王城有着圣杯出没的传闻。我们需要在当地发展我们的组织，寻找蛛丝马迹。
 积累猫咪影响力后，执行“猫咪巡游”、“猫咪仪式”与“猫咪集会”，取得线索并找到圣杯所在。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>决裂</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -516,10 +520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -696,6 +700,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>72000</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FF83CE6-BD79-4CE8-9656-A199F5D7A5F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F861CFC-47D9-4D74-AB3C-FF363BBB2FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="4650" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14130" yWindow="4005" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>文本编号</t>
   </si>
@@ -114,6 +114,10 @@
   </si>
   <si>
     <t>决裂</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是大结局！！！！</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -520,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -708,6 +712,14 @@
         <v>10</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>73000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F861CFC-47D9-4D74-AB3C-FF363BBB2FD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52717CA3-9FBE-44BA-A3AA-80DCDBB52DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14130" yWindow="4005" windowWidth="21105" windowHeight="13935" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14490" yWindow="5370" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>文本编号</t>
   </si>
@@ -103,11 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国王已与组织达成契约：只要能够制止亲王兵变，便将猫咪视为国宝，提升我们在人类社会中的地位。我们也可以趁此机会拓宽势力，为接管这个国家做好准备。
-监视亲王安彼西奥，尝试破坏发起兵变的各项准备。</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>猫咪圣杯是古埃及盗取的神器之一。最近，在因西亚王城有着圣杯出没的传闻。我们需要在当地发展我们的组织，寻找蛛丝马迹。
 积累猫咪影响力后，执行“猫咪巡游”、“猫咪仪式”与“猫咪集会”，取得线索并找到圣杯所在。</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -118,6 +113,19 @@
   </si>
   <si>
     <t>这是大结局！！！！</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>受伤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>神启</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王允诺，事成之后，猫咪会被视为国宝。我们可以提升自己的地位、拓宽势力，为接管这个国家做好准备。
+监视亲王安彼西奥，尝试破坏其兵变计划。</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -524,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -552,12 +560,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>71001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -568,12 +576,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>71011</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -706,18 +714,34 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
-        <v>72000</v>
+        <v>70200</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>70201</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
+        <v>72000</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
         <v>73000</v>
       </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
+      <c r="B28" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52717CA3-9FBE-44BA-A3AA-80DCDBB52DEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41B9D2-537F-43C0-A772-9474A0A0E8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14490" yWindow="5370" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14565" yWindow="3930" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>文本编号</t>
   </si>
@@ -112,10 +112,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>这是大结局！！！！</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>受伤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -126,6 +122,31 @@
   <si>
     <t>国王允诺，事成之后，猫咪会被视为国宝。我们可以提升自己的地位、拓宽势力，为接管这个国家做好准备。
 监视亲王安彼西奥，尝试破坏其兵变计划。</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>国王遭到暗杀，猫咪们失去了控制因西亚地区的良机
+阴谋失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>猫咪的活动被人类察觉，人类开始剿杀猫咪。猫咪共济会几乎被摧毁
+阴谋失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲王已经无力发起兵变，猫咪们开起了庆功会。不过，这会是结束么？
+达成阴谋胜利？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制国王后，猫咪共济会扫清了其他阻碍，建立了因西亚地区的傀儡统治
+达成统治胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>组织取得了猫咪圣杯。在圣器的协助下，统治人类指日可待
+达成圣杯胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -532,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -565,7 +586,7 @@
         <v>71001</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -717,7 +738,7 @@
         <v>70200</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -725,7 +746,7 @@
         <v>70201</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -736,12 +757,44 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>73000</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>10</v>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>73001</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>73002</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>73003</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>73004</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D41B9D2-537F-43C0-A772-9474A0A0E8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F1F93-969C-4A83-8312-D39FE2FF834B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14565" yWindow="3930" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20880" yWindow="4800" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -125,27 +125,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>国王遭到暗杀，猫咪们失去了控制因西亚地区的良机
+    <t>&lt;color=#C8B094&gt;国王遭到暗杀，猫咪们失去了控制因西亚地区的良机&lt;/color&gt;
 阴谋失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>猫咪的活动被人类察觉，人类开始剿杀猫咪。猫咪共济会几乎被摧毁
+    <t>&lt;color=#C8B094&gt;猫咪的活动被人类察觉，人类开始剿杀猫咪。猫咪共济会几乎被摧毁&lt;/color&gt;
 阴谋失败</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>亲王已经无力发起兵变，猫咪们开起了庆功会。不过，这会是结束么？
-达成阴谋胜利？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制国王后，猫咪共济会扫清了其他阻碍，建立了因西亚地区的傀儡统治
+    <t>&lt;color=#C8B094&gt;亲王已经无力发起兵变，猫咪们开起了庆功会。不过，这会是结束么？&lt;/color&gt;
+达成阴谋胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#C8B094&gt;控制国王后，猫咪共济会扫清了其他阻碍，建立了因西亚地区的傀儡统治&lt;/color&gt;
 达成统治胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>组织取得了猫咪圣杯。在圣器的协助下，统治人类指日可待
+    <t>&lt;color=#C8B094&gt;组织取得了猫咪圣杯。在圣器的协助下，统治人类指日可待&lt;/color&gt;
 达成圣杯胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -800,6 +800,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F1F93-969C-4A83-8312-D39FE2FF834B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521A1CB-BA07-461B-9DC0-CCDBF9CB0D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20880" yWindow="4800" windowWidth="21105" windowHeight="14115" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1350" yWindow="4740" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>文本编号</t>
   </si>
@@ -147,6 +147,10 @@
   <si>
     <t>&lt;color=#C8B094&gt;组织取得了猫咪圣杯。在圣器的协助下，统治人类指日可待&lt;/color&gt;
 达成圣杯胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>父女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -553,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B27" sqref="A27:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -757,43 +761,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>73000</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>13</v>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>72001</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
-        <v>73001</v>
+        <v>73000</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
-        <v>73002</v>
+        <v>73001</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
-        <v>73003</v>
+        <v>73002</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
+        <v>73003</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
         <v>73004</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B33" s="4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D521A1CB-BA07-461B-9DC0-CCDBF9CB0D2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA74AD-B372-42C5-B4CB-042EC31BD1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="4740" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="4185" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -135,11 +135,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#C8B094&gt;亲王已经无力发起兵变，猫咪们开起了庆功会。不过，这会是结束么？&lt;/color&gt;
-达成阴谋胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;color=#C8B094&gt;控制国王后，猫咪共济会扫清了其他阻碍，建立了因西亚地区的傀儡统治&lt;/color&gt;
 达成统治胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,6 +146,11 @@
   </si>
   <si>
     <t>父女</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#C8B094&gt;亲王已经无力发起兵变，猫咪们开起了庆功会不过，这会是结束么？&lt;/color&gt;
+达成阴谋胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -560,7 +560,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B27" sqref="A27:B27"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,7 +766,7 @@
         <v>72001</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -790,7 +790,7 @@
         <v>73002</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -798,7 +798,7 @@
         <v>73003</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -806,7 +806,7 @@
         <v>73004</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBA74AD-B372-42C5-B4CB-042EC31BD1A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1F5B3-3DBD-4C34-89EC-0E960657291D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="4185" windowWidth="25800" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5835" yWindow="3420" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -560,7 +560,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/ExcelConfig/pbjson/excel/文本语言表.xlsx
+++ b/ExcelConfig/pbjson/excel/文本语言表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CatClub\ExcelConfig\pbjson\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91C1F5B3-3DBD-4C34-89EC-0E960657291D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C2005A4-AA7A-4B8E-AA22-E05603C59E28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5835" yWindow="3420" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11760" yWindow="4395" windowWidth="25785" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#文本配置" sheetId="1" r:id="rId1"/>
@@ -125,32 +125,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;color=#C8B094&gt;国王遭到暗杀，猫咪们失去了控制因西亚地区的良机&lt;/color&gt;
-阴谋失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#C8B094&gt;猫咪的活动被人类察觉，人类开始剿杀猫咪。猫咪共济会几乎被摧毁&lt;/color&gt;
-阴谋失败</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#C8B094&gt;控制国王后，猫咪共济会扫清了其他阻碍，建立了因西亚地区的傀儡统治&lt;/color&gt;
-达成统治胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;color=#C8B094&gt;组织取得了猫咪圣杯。在圣器的协助下，统治人类指日可待&lt;/color&gt;
-达成圣杯胜利</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>父女</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;color=#C8B094&gt;亲王已经无力发起兵变，猫咪们开起了庆功会不过，这会是结束么？&lt;/color&gt;
 达成阴谋胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#C8B094&gt;猫咪的活动被人类察觉，人类开始剿杀猫咪  猫咪共济会几乎被摧毁&lt;/color&gt;
+阴谋失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#C8B094&gt;国王遭到暗杀
+猫咪们失去了控制因西亚地区的良机&lt;/color&gt;
+阴谋失败</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#C8B094&gt;控制国王后，猫咪共济会扫清了其他阻碍
+因西亚地区的猫咪傀儡政权建立&lt;/color&gt;
+达成统治胜利</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;color=#C8B094&gt;组织取得了猫咪圣杯
+在圣器的协助下，统治人类指日可待&lt;/color&gt;
+达成圣杯胜利</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -766,15 +769,15 @@
         <v>72001</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>73000</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -782,7 +785,7 @@
         <v>73001</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
@@ -790,23 +793,23 @@
         <v>73002</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>73003</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.5" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>73004</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
